--- a/results/mp/logistic/corona/confidence/126/stop-words-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,40 +40,40 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>lower</t>
+    <t>cut</t>
   </si>
   <si>
     <t>emergency</t>
@@ -82,6 +82,9 @@
     <t>empty</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
@@ -91,15 +94,15 @@
     <t>oil</t>
   </si>
   <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -118,97 +121,109 @@
     <t>free</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>safe</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>good</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>thank</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>keep</t>
+    <t>give</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>stay</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>grocery</t>
+    <t>amp</t>
   </si>
 </sst>
 </file>
@@ -566,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,10 +589,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -635,13 +650,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8611111111111112</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -653,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -685,13 +700,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8421052631578947</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -703,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4">
         <v>0.9152542372881356</v>
@@ -735,13 +750,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7941176470588235</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>236</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>236</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -753,19 +768,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K5">
-        <v>0.8833333333333333</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -777,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -785,13 +800,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.791095890410959</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C6">
-        <v>231</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>231</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -803,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K6">
-        <v>0.8620689655172413</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L6">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="M6">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -827,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -835,13 +850,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7837837837837838</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -853,31 +868,31 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7">
-        <v>0.8558558558558559</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="N7">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,37 +900,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6206896551724138</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C8">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8">
+        <v>33</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>18</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E8">
-        <v>0.03</v>
-      </c>
-      <c r="F8">
-        <v>0.97</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>22</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -935,13 +950,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5925925925925926</v>
+        <v>0.625</v>
       </c>
       <c r="C9">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -953,19 +968,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K9">
-        <v>0.8328981723237598</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="L9">
-        <v>319</v>
+        <v>91</v>
       </c>
       <c r="M9">
-        <v>319</v>
+        <v>91</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -977,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,13 +1000,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5882352941176471</v>
+        <v>0.5949612403100775</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>307</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>307</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1003,19 +1018,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>0.8181818181818182</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L10">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="M10">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1027,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1035,13 +1050,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.562015503875969</v>
+        <v>0.582010582010582</v>
       </c>
       <c r="C11">
-        <v>290</v>
+        <v>110</v>
       </c>
       <c r="D11">
-        <v>290</v>
+        <v>110</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1053,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>0.80625</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="L11">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="M11">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1077,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1085,13 +1100,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5234899328859061</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C12">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="D12">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1103,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>0.8055555555555556</v>
+        <v>0.8328981723237598</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>319</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>319</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1127,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1135,13 +1150,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4909090909090909</v>
+        <v>0.5570469798657718</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1153,19 +1168,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>0.795774647887324</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L13">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="M13">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1177,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1185,13 +1200,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4821428571428572</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1203,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K14">
-        <v>0.7926829268292683</v>
+        <v>0.79375</v>
       </c>
       <c r="L14">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="M14">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1227,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1235,13 +1250,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4266666666666667</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="C15">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D15">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1253,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>0.7872340425531915</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1277,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1306,16 +1321,16 @@
         <v>59</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>0.7830188679245284</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L16">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="M16">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1327,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1335,13 +1350,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3253968253968254</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="C17">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1353,19 +1368,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K17">
         <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1377,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1385,13 +1400,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2412868632707775</v>
+        <v>0.3373015873015873</v>
       </c>
       <c r="C18">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D18">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1403,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>283</v>
+        <v>167</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>0.7674418604651163</v>
+        <v>0.7734375</v>
       </c>
       <c r="L18">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="M18">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1427,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1435,37 +1450,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1533333333333333</v>
+        <v>0.2365591397849462</v>
       </c>
       <c r="C19">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="D19">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19">
+        <v>0.746031746031746</v>
+      </c>
+      <c r="L19">
         <v>47</v>
       </c>
-      <c r="K19">
-        <v>0.765625</v>
-      </c>
-      <c r="L19">
-        <v>98</v>
-      </c>
       <c r="M19">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1477,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1485,37 +1500,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.03894839337877313</v>
+        <v>0.15</v>
       </c>
       <c r="C20">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="D20">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="E20">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8200000000000001</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>2961</v>
+        <v>255</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>0.75</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L20">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1527,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1535,37 +1550,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03496503496503497</v>
+        <v>0.09215017064846416</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E21">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>828</v>
+        <v>266</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>0.7</v>
+        <v>0.725</v>
       </c>
       <c r="L21">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1577,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1585,37 +1600,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.03119584055459272</v>
+        <v>0.04145077720207254</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D22">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E22">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="F22">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>1118</v>
+        <v>1110</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>0.6527196652719666</v>
+        <v>0.66</v>
       </c>
       <c r="L22">
-        <v>156</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>156</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1627,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>83</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1635,37 +1650,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.02368545712932259</v>
+        <v>0.03337653920933247</v>
       </c>
       <c r="C23">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="D23">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="E23">
-        <v>0.39</v>
+        <v>0.17</v>
       </c>
       <c r="F23">
-        <v>0.61</v>
+        <v>0.83</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>2061</v>
+        <v>2983</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>0.6461538461538462</v>
+        <v>0.6529411764705882</v>
       </c>
       <c r="L23">
-        <v>42</v>
+        <v>222</v>
       </c>
       <c r="M23">
-        <v>42</v>
+        <v>222</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1677,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>23</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1685,37 +1700,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.009983896940418679</v>
+        <v>0.02315689981096408</v>
       </c>
       <c r="C24">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D24">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="E24">
-        <v>0.76</v>
+        <v>0.36</v>
       </c>
       <c r="F24">
-        <v>0.24</v>
+        <v>0.64</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>3074</v>
+        <v>2067</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K24">
-        <v>0.6352941176470588</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L24">
-        <v>216</v>
+        <v>41</v>
       </c>
       <c r="M24">
-        <v>216</v>
+        <v>41</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1727,21 +1742,45 @@
         <v>0</v>
       </c>
       <c r="Q24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.008698453608247423</v>
+      </c>
+      <c r="C25">
+        <v>27</v>
+      </c>
+      <c r="D25">
         <v>124</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="E25">
+        <v>0.78</v>
+      </c>
+      <c r="F25">
+        <v>0.22</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>3077</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K25">
-        <v>0.6170212765957447</v>
+        <v>0.6305084745762712</v>
       </c>
       <c r="L25">
-        <v>58</v>
+        <v>186</v>
       </c>
       <c r="M25">
-        <v>58</v>
+        <v>186</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1753,21 +1792,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>36</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.6292134831460674</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="M26">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1779,21 +1818,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K27">
-        <v>0.5955056179775281</v>
+        <v>0.606694560669456</v>
       </c>
       <c r="L27">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="M27">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1805,21 +1844,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>36</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="L28">
         <v>56</v>
       </c>
-      <c r="K28">
-        <v>0.5830508474576271</v>
-      </c>
-      <c r="L28">
-        <v>172</v>
-      </c>
       <c r="M28">
-        <v>172</v>
+        <v>56</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1831,21 +1870,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>123</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K29">
-        <v>0.5490196078431373</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1857,21 +1896,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K30">
-        <v>0.5142857142857142</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L30">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M30">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1883,21 +1922,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K31">
-        <v>0.4657534246575342</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="L31">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M31">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1909,47 +1948,47 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K32">
-        <v>0.4358974358974359</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="L32">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M32">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K33">
-        <v>0.2096774193548387</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L33">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="M33">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1961,21 +2000,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>98</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K34">
-        <v>0.09375</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="L34">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M34">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1987,137 +2026,215 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>377</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K35">
-        <v>0.09120521172638436</v>
+        <v>0.2429906542056075</v>
       </c>
       <c r="L35">
+        <v>26</v>
+      </c>
+      <c r="M35">
         <v>28</v>
       </c>
-      <c r="M35">
-        <v>29</v>
-      </c>
       <c r="N35">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="O35">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>279</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K36">
-        <v>0.03121516164994426</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="L36">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M36">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N36">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>869</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K37">
+        <v>0.1010452961672474</v>
+      </c>
+      <c r="L37">
         <v>29</v>
       </c>
-      <c r="K37">
-        <v>0.03028391167192429</v>
-      </c>
-      <c r="L37">
-        <v>96</v>
-      </c>
       <c r="M37">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="N37">
-        <v>0.76</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O37">
-        <v>0.24</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>3074</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K38">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="L38">
         <v>28</v>
       </c>
-      <c r="K38">
-        <v>0.01528905876731964</v>
-      </c>
-      <c r="L38">
-        <v>32</v>
-      </c>
       <c r="M38">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="N38">
-        <v>0.39</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>2061</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K39">
+        <v>0.07951807228915662</v>
+      </c>
+      <c r="L39">
+        <v>33</v>
+      </c>
+      <c r="M39">
+        <v>34</v>
+      </c>
+      <c r="N39">
+        <v>0.97</v>
+      </c>
+      <c r="O39">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K40">
+        <v>0.07163323782234957</v>
+      </c>
+      <c r="L40">
         <v>25</v>
       </c>
-      <c r="K39">
-        <v>0.008704385671242048</v>
-      </c>
-      <c r="L39">
-        <v>26</v>
-      </c>
-      <c r="M39">
-        <v>146</v>
-      </c>
-      <c r="N39">
-        <v>0.18</v>
-      </c>
-      <c r="O39">
-        <v>0.8200000000000001</v>
-      </c>
-      <c r="P39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>2961</v>
+      <c r="M40">
+        <v>25</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K41">
+        <v>0.03056080655324512</v>
+      </c>
+      <c r="L41">
+        <v>97</v>
+      </c>
+      <c r="M41">
+        <v>124</v>
+      </c>
+      <c r="N41">
+        <v>0.78</v>
+      </c>
+      <c r="O41">
+        <v>0.22</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42">
+        <v>0.01289398280802292</v>
+      </c>
+      <c r="L42">
+        <v>27</v>
+      </c>
+      <c r="M42">
+        <v>76</v>
+      </c>
+      <c r="N42">
+        <v>0.36</v>
+      </c>
+      <c r="O42">
+        <v>0.64</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>2067</v>
       </c>
     </row>
   </sheetData>
